--- a/Running projects/BAHL 12 floor Centrepoint Karachi/PO/002- Purchase order- for VAVs boxes.xlsx
+++ b/Running projects/BAHL 12 floor Centrepoint Karachi/PO/002- Purchase order- for VAVs boxes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAHL 12 floor Centrepoint Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5607DA-41A1-4F7F-94D8-2CC4EC2DE4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A5A24-8147-41DC-AA01-77A6E61A980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,6 +49,93 @@
     <t>Terms &amp; Conditions</t>
   </si>
   <si>
+    <t>Note: Above PO is subject to approval from the consultant.</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>1) Price is valid only for 60 Days</t>
+  </si>
+  <si>
+    <t>2) 50% advacnce &amp; balance before delivery or option-2 Balance material against balance material delivered against 30 to 40 days PDC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) GST Invoice issue after 3 months </t>
+  </si>
+  <si>
+    <t>5) Above price discount at @ 8% agreed.</t>
+  </si>
+  <si>
+    <t>3) 5 Lacs old outstanding amount settelled with advance.</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Received by M. Imran</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Above Price is locked and will not affect after change in the Dollar Prices.</t>
+  </si>
+  <si>
+    <t>Parital advance Payment Given on dated 15 May 23</t>
+  </si>
+  <si>
+    <t>Att: Mr. Imran</t>
+  </si>
+  <si>
+    <t>M/S Shan Controls</t>
+  </si>
+  <si>
+    <t>Inlet Dia</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>PURCHASE ORDER against quote Ref #  P2402-013</t>
+  </si>
+  <si>
+    <t>Supply of VAVs Boxes for Bank Al Habib 12th Floor Center Point Karachi</t>
+  </si>
+  <si>
+    <t>VAV Controller, BACnet/MSTP, Johnson Controls</t>
+  </si>
+  <si>
+    <t>Room Thermostat with Temp. Setpoint</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>GST 18%</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>JC-VAV1717-0</t>
+  </si>
+  <si>
+    <t>NSA-FTB7003-0</t>
+  </si>
+  <si>
+    <t>NET TOTAL</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">for </t>
     </r>
@@ -61,95 +148,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PIONEER ENGINEERING SERVICES</t>
+      <t>National Engineer Company</t>
     </r>
-  </si>
-  <si>
-    <t>Note: Above PO is subject to approval from the consultant.</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>1) Price is valid only for 60 Days</t>
-  </si>
-  <si>
-    <t>2) 50% advacnce &amp; balance before delivery or option-2 Balance material against balance material delivered against 30 to 40 days PDC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) GST Invoice issue after 3 months </t>
-  </si>
-  <si>
-    <t>5) Above price discount at @ 8% agreed.</t>
-  </si>
-  <si>
-    <t>3) 5 Lacs old outstanding amount settelled with advance.</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Received by M. Imran</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>Above Price is locked and will not affect after change in the Dollar Prices.</t>
-  </si>
-  <si>
-    <t>Parital advance Payment Given on dated 15 May 23</t>
-  </si>
-  <si>
-    <t>Att: Mr. Imran</t>
-  </si>
-  <si>
-    <t>M/S Shan Controls</t>
-  </si>
-  <si>
-    <t>Inlet Dia</t>
-  </si>
-  <si>
-    <t>Nos</t>
-  </si>
-  <si>
-    <t>PURCHASE ORDER against quote Ref #  P2402-013</t>
-  </si>
-  <si>
-    <t>Supply of VAVs Boxes for Bank Al Habib 12th Floor Center Point Karachi</t>
-  </si>
-  <si>
-    <t>VAV Controller, BACnet/MSTP, Johnson Controls</t>
-  </si>
-  <si>
-    <t>Room Thermostat with Temp. Setpoint</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>GST 18%</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>JC-VAV1717-0</t>
-  </si>
-  <si>
-    <t>NSA-FTB7003-0</t>
-  </si>
-  <si>
-    <t>NET TOTAL</t>
   </si>
 </sst>
 </file>
@@ -491,6 +491,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,42 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,154 +568,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1724024</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>501436</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2066924" y="0"/>
-          <a:ext cx="2330237" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74716</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="104776" y="7658100"/>
-          <a:ext cx="609599" cy="570016"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -798,7 +650,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -807,6 +659,50 @@
         <a:xfrm>
           <a:off x="7896225" y="0"/>
           <a:ext cx="12174649" cy="8754697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533787</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A9DB23-4B18-4585-95B8-0728A97B4FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="1876687" cy="1143160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1083,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1003,7 @@
     <row r="9" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="17"/>
@@ -1124,54 +1020,54 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="A12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="A14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:10" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
+      <c r="A19" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1181,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>2</v>
@@ -1193,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -1206,24 +1102,24 @@
         <v>1</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="25">
         <v>8</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="28">
         <v>14</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="55">
+        <v>23</v>
+      </c>
+      <c r="G21" s="40">
         <v>63560</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="41">
         <f>G21*E21</f>
         <v>889840</v>
       </c>
@@ -1235,24 +1131,24 @@
         <v>2</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="25">
         <v>8</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="28">
         <v>14</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="55">
+        <v>23</v>
+      </c>
+      <c r="G22" s="40">
         <v>20720</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="41">
         <f t="shared" ref="H22:H23" si="0">G22*E22</f>
         <v>290080</v>
       </c>
@@ -1281,11 +1177,11 @@
         <v>6</v>
       </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="18">
         <f>SUM(H21:H23)</f>
         <v>1179920</v>
@@ -1297,8 +1193,8 @@
       <c r="A25" s="35">
         <v>3</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>29</v>
+      <c r="B25" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -1313,14 +1209,14 @@
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="54"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="E26" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="18">
         <f>H24-H25</f>
         <v>940920</v>
@@ -1332,8 +1228,8 @@
       <c r="A27" s="35">
         <v>4</v>
       </c>
-      <c r="B27" s="53" t="s">
-        <v>30</v>
+      <c r="B27" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -1351,8 +1247,8 @@
       <c r="A28" s="35">
         <v>5</v>
       </c>
-      <c r="B28" s="53" t="s">
-        <v>31</v>
+      <c r="B28" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
@@ -1373,44 +1269,44 @@
     </row>
     <row r="31" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,7 +1314,7 @@
     </row>
     <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="22"/>
@@ -1431,51 +1327,51 @@
     </row>
     <row r="40" spans="1:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="39">
+      <c r="B45" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="51">
         <v>1000000</v>
       </c>
-      <c r="G45" s="39"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="8"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="8"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -1489,21 +1385,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
       <c r="H48" s="8"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
+      <c r="C49" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
       <c r="H49" s="8"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -1511,11 +1407,11 @@
     <row r="50" spans="2:10" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="23"/>
       <c r="C50" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" s="24"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
       <c r="H50" s="8"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -1523,17 +1419,24 @@
     <row r="51" spans="2:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="23"/>
       <c r="C51" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="24"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
       <c r="H51" s="8"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="F45:G46"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="A32:H33"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A14:H14"/>
@@ -1541,13 +1444,6 @@
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="F45:G46"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="B45:E46"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
